--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_006.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="169">
   <si>
     <t>Sezione</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -565,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -979,7 +991,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>38</v>
@@ -1002,7 +1014,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>38</v>
@@ -1011,7 +1023,7 @@
         <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>22</v>
@@ -1048,7 +1060,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>38</v>
@@ -1071,7 +1083,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>38</v>
@@ -1080,7 +1092,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>22</v>
@@ -1149,7 +1161,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>22</v>
@@ -1163,7 +1175,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>38</v>
@@ -1172,7 +1184,7 @@
         <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>22</v>
@@ -1186,7 +1198,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>38</v>
@@ -1195,7 +1207,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>22</v>
@@ -1209,7 +1221,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1218,7 +1230,7 @@
         <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>22</v>
@@ -1232,7 +1244,7 @@
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>38</v>
@@ -1241,7 +1253,7 @@
         <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>22</v>
@@ -1264,7 +1276,7 @@
         <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>22</v>
@@ -1402,7 +1414,7 @@
         <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>22</v>
@@ -1416,7 +1428,7 @@
         <v>84</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>38</v>
@@ -1425,7 +1437,7 @@
         <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>22</v>
@@ -1439,7 +1451,7 @@
         <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>38</v>
@@ -1448,7 +1460,7 @@
         <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>22</v>
@@ -1485,7 +1497,7 @@
         <v>90</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>38</v>
@@ -1508,7 +1520,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>38</v>
@@ -1517,7 +1529,7 @@
         <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>22</v>
@@ -1571,22 +1583,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>22</v>
@@ -1594,22 +1606,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>22</v>
@@ -1617,22 +1629,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>22</v>
@@ -1640,19 +1652,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1675,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1698,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1721,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1732,22 +1744,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>22</v>
@@ -1755,22 +1767,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>22</v>
@@ -1778,19 +1790,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1801,22 +1813,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>22</v>
@@ -1824,22 +1836,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>22</v>
@@ -1847,22 +1859,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>22</v>
@@ -1870,19 +1882,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1905,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>16</v>
@@ -1916,19 +1928,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>16</v>
@@ -1939,19 +1951,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1962,22 +1974,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>22</v>
@@ -1985,22 +1997,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>22</v>
@@ -2008,19 +2020,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>16</v>
@@ -2031,19 +2043,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2066,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>16</v>
@@ -2077,22 +2089,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>22</v>
@@ -2100,22 +2112,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>22</v>
@@ -2123,19 +2135,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2146,22 +2158,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>22</v>
@@ -2169,22 +2181,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>22</v>
@@ -2192,22 +2204,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>22</v>
@@ -2215,19 +2227,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2238,22 +2250,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>22</v>
@@ -2261,19 +2273,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2284,22 +2296,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>22</v>
@@ -2307,19 +2319,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2330,22 +2342,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>22</v>
@@ -2353,19 +2365,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2388,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2411,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2434,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2457,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2480,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2503,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2526,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2549,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2572,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2595,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2618,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2641,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2664,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2687,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2710,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2733,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2756,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2779,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2790,19 +2802,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2813,19 +2825,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2836,19 +2848,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2871,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2882,19 +2894,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2905,19 +2917,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2928,19 +2940,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2963,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2974,19 +2986,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3009,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3032,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3055,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3078,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3101,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3115,22 +3127,22 @@
         <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
@@ -3138,22 +3150,22 @@
         <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
@@ -3161,22 +3173,22 @@
         <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
@@ -3184,1341 +3196,1341 @@
         <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>147</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>13</v>
@@ -4527,21 +4539,21 @@
         <v>147</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>13</v>
@@ -4550,104 +4562,288 @@
         <v>147</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="C182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
+      <c r="B185" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_006.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -113,10 +113,16 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>Data stipula accordo</t>
+  </si>
+  <si>
+    <t>evento.negoziazioneAssistita</t>
+  </si>
+  <si>
+    <t>dataStipulaAccordo</t>
+  </si>
+  <si>
     <t>Testo da trascrivere</t>
-  </si>
-  <si>
-    <t>evento.negoziazioneAssistita</t>
   </si>
   <si>
     <t>testoTrascrizione</t>
@@ -577,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -893,22 +899,22 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>22</v>
@@ -916,22 +922,22 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>22</v>
@@ -939,16 +945,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -962,16 +968,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
@@ -985,16 +991,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -1008,7 +1014,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
@@ -1017,13 +1023,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>22</v>
@@ -1031,22 +1037,22 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>22</v>
@@ -1054,7 +1060,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>52</v>
@@ -1063,7 +1069,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -1077,7 +1083,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>54</v>
@@ -1086,7 +1092,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>55</v>
@@ -1100,16 +1106,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -1123,7 +1129,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
@@ -1132,13 +1138,13 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>22</v>
@@ -1146,7 +1152,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>60</v>
@@ -1155,13 +1161,13 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>22</v>
@@ -1169,7 +1175,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>62</v>
@@ -1178,13 +1184,13 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>22</v>
@@ -1192,7 +1198,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
@@ -1201,7 +1207,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>65</v>
@@ -1215,22 +1221,22 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>22</v>
@@ -1238,7 +1244,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>68</v>
@@ -1247,7 +1253,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>69</v>
@@ -1261,22 +1267,22 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>22</v>
@@ -1284,7 +1290,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>72</v>
@@ -1293,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>73</v>
@@ -1307,7 +1313,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
@@ -1316,13 +1322,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>22</v>
@@ -1330,7 +1336,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>76</v>
@@ -1339,13 +1345,13 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>22</v>
@@ -1353,7 +1359,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>78</v>
@@ -1362,13 +1368,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>22</v>
@@ -1376,7 +1382,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>80</v>
@@ -1385,13 +1391,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>22</v>
@@ -1399,7 +1405,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>82</v>
@@ -1408,13 +1414,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>22</v>
@@ -1422,7 +1428,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>84</v>
@@ -1431,13 +1437,13 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>22</v>
@@ -1445,7 +1451,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>86</v>
@@ -1454,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>87</v>
@@ -1468,22 +1474,22 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>22</v>
@@ -1491,7 +1497,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>90</v>
@@ -1500,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>91</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>92</v>
@@ -1523,7 +1529,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>93</v>
@@ -1537,16 +1543,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>95</v>
@@ -1560,7 +1566,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>96</v>
@@ -1569,13 +1575,13 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>22</v>
@@ -1583,7 +1589,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>98</v>
@@ -1592,13 +1598,13 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>22</v>
@@ -1606,7 +1612,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>100</v>
@@ -1615,13 +1621,13 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>22</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
@@ -1652,22 +1658,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>22</v>
@@ -1675,16 +1681,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>43</v>
@@ -1698,16 +1704,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>45</v>
@@ -1721,16 +1727,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>47</v>
@@ -1744,7 +1750,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>48</v>
@@ -1753,13 +1759,13 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>22</v>
@@ -1767,22 +1773,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>22</v>
@@ -1790,7 +1796,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>52</v>
@@ -1799,7 +1805,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>53</v>
@@ -1813,7 +1819,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>54</v>
@@ -1822,7 +1828,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>55</v>
@@ -1836,16 +1842,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>57</v>
@@ -1859,7 +1865,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>58</v>
@@ -1868,13 +1874,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>22</v>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>60</v>
@@ -1891,13 +1897,13 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>22</v>
@@ -1905,7 +1911,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>62</v>
@@ -1914,13 +1920,13 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>22</v>
@@ -1928,7 +1934,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>64</v>
@@ -1937,7 +1943,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>65</v>
@@ -1951,22 +1957,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>22</v>
@@ -1974,7 +1980,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>68</v>
@@ -1983,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>69</v>
@@ -1997,22 +2003,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>22</v>
@@ -2020,7 +2026,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>72</v>
@@ -2029,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>73</v>
@@ -2043,7 +2049,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>74</v>
@@ -2052,13 +2058,13 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>22</v>
@@ -2066,7 +2072,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>76</v>
@@ -2075,13 +2081,13 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>22</v>
@@ -2089,7 +2095,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>78</v>
@@ -2098,13 +2104,13 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>22</v>
@@ -2112,7 +2118,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>80</v>
@@ -2121,13 +2127,13 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>22</v>
@@ -2135,7 +2141,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>82</v>
@@ -2144,13 +2150,13 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>22</v>
@@ -2158,7 +2164,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>84</v>
@@ -2167,13 +2173,13 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>22</v>
@@ -2181,7 +2187,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>86</v>
@@ -2190,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>87</v>
@@ -2204,22 +2210,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>22</v>
@@ -2227,7 +2233,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>90</v>
@@ -2236,7 +2242,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>91</v>
@@ -2250,7 +2256,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>92</v>
@@ -2259,7 +2265,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>93</v>
@@ -2273,16 +2279,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>95</v>
@@ -2296,7 +2302,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>96</v>
@@ -2305,13 +2311,13 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>22</v>
@@ -2319,7 +2325,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>98</v>
@@ -2328,13 +2334,13 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>22</v>
@@ -2342,7 +2348,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>100</v>
@@ -2351,13 +2357,13 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>22</v>
@@ -2368,19 +2374,19 @@
         <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>22</v>
@@ -2388,16 +2394,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>109</v>
@@ -2411,7 +2417,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>110</v>
@@ -2420,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>111</v>
@@ -2434,7 +2440,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>112</v>
@@ -2443,7 +2449,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>113</v>
@@ -2457,7 +2463,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>114</v>
@@ -2466,7 +2472,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>115</v>
@@ -2480,7 +2486,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>116</v>
@@ -2489,10 +2495,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2526,7 +2532,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>119</v>
@@ -2535,10 +2541,10 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2572,7 +2578,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>122</v>
@@ -2581,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>123</v>
@@ -2595,7 +2601,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>124</v>
@@ -2604,7 +2610,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>125</v>
@@ -2618,7 +2624,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>126</v>
@@ -2627,7 +2633,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>127</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2664,16 +2670,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>109</v>
@@ -2687,7 +2693,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>110</v>
@@ -2696,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>111</v>
@@ -2710,7 +2716,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>112</v>
@@ -2719,7 +2725,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>113</v>
@@ -2733,7 +2739,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>114</v>
@@ -2742,7 +2748,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>115</v>
@@ -2756,7 +2762,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>116</v>
@@ -2765,10 +2771,10 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2779,19 +2785,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2802,7 +2808,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>119</v>
@@ -2811,10 +2817,10 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2825,19 +2831,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2848,7 +2854,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>122</v>
@@ -2857,7 +2863,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>123</v>
@@ -2871,7 +2877,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>124</v>
@@ -2880,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>125</v>
@@ -2894,7 +2900,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>126</v>
@@ -2903,7 +2909,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>127</v>
@@ -2920,16 +2926,16 @@
         <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2946,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2963,16 +2969,16 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>109</v>
@@ -2986,7 +2992,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>110</v>
@@ -2995,7 +3001,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>111</v>
@@ -3009,7 +3015,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>112</v>
@@ -3018,7 +3024,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>113</v>
@@ -3032,7 +3038,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>114</v>
@@ -3041,7 +3047,7 @@
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>115</v>
@@ -3055,7 +3061,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>116</v>
@@ -3064,10 +3070,10 @@
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3078,19 +3084,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3124,19 +3130,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3147,7 +3153,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>122</v>
@@ -3156,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>123</v>
@@ -3170,7 +3176,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>124</v>
@@ -3179,7 +3185,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>125</v>
@@ -3193,16 +3199,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>127</v>
@@ -3216,62 +3222,62 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>41</v>
@@ -3280,21 +3286,21 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>43</v>
@@ -3303,12 +3309,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>44</v>
@@ -3317,7 +3323,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>45</v>
@@ -3326,12 +3332,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>46</v>
@@ -3340,7 +3346,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>47</v>
@@ -3349,12 +3355,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>48</v>
@@ -3363,7 +3369,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>49</v>
@@ -3372,12 +3378,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>50</v>
@@ -3386,7 +3392,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>51</v>
@@ -3395,12 +3401,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>52</v>
@@ -3409,7 +3415,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>53</v>
@@ -3418,12 +3424,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>54</v>
@@ -3432,7 +3438,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>55</v>
@@ -3441,12 +3447,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>56</v>
@@ -3455,7 +3461,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>57</v>
@@ -3464,12 +3470,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>58</v>
@@ -3478,7 +3484,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>59</v>
@@ -3487,12 +3493,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>60</v>
@@ -3501,7 +3507,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>61</v>
@@ -3510,12 +3516,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>62</v>
@@ -3524,7 +3530,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>63</v>
@@ -3533,12 +3539,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>64</v>
@@ -3547,7 +3553,7 @@
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>65</v>
@@ -3556,12 +3562,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>66</v>
@@ -3570,7 +3576,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>67</v>
@@ -3579,12 +3585,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>68</v>
@@ -3593,7 +3599,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>69</v>
@@ -3602,12 +3608,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>70</v>
@@ -3616,7 +3622,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>71</v>
@@ -3625,12 +3631,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>72</v>
@@ -3639,7 +3645,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>73</v>
@@ -3648,12 +3654,12 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>74</v>
@@ -3662,7 +3668,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>75</v>
@@ -3671,12 +3677,12 @@
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>76</v>
@@ -3685,7 +3691,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>77</v>
@@ -3694,12 +3700,12 @@
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>78</v>
@@ -3708,7 +3714,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>79</v>
@@ -3717,12 +3723,12 @@
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>80</v>
@@ -3731,7 +3737,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>81</v>
@@ -3740,12 +3746,12 @@
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>82</v>
@@ -3754,7 +3760,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>83</v>
@@ -3763,12 +3769,12 @@
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>84</v>
@@ -3777,7 +3783,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>85</v>
@@ -3786,12 +3792,12 @@
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>86</v>
@@ -3800,7 +3806,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>87</v>
@@ -3809,21 +3815,21 @@
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>89</v>
@@ -3832,12 +3838,12 @@
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>90</v>
@@ -3846,7 +3852,7 @@
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>91</v>
@@ -3855,21 +3861,21 @@
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>93</v>
@@ -3878,35 +3884,35 @@
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>142</v>
@@ -3924,15 +3930,15 @@
         <v>16</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3947,44 +3953,44 @@
         <v>16</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>41</v>
@@ -3993,21 +3999,21 @@
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>43</v>
@@ -4016,12 +4022,12 @@
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>44</v>
@@ -4030,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>45</v>
@@ -4039,12 +4045,12 @@
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>46</v>
@@ -4053,7 +4059,7 @@
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>47</v>
@@ -4062,12 +4068,12 @@
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>48</v>
@@ -4076,7 +4082,7 @@
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>49</v>
@@ -4085,12 +4091,12 @@
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>50</v>
@@ -4099,7 +4105,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>51</v>
@@ -4108,12 +4114,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>52</v>
@@ -4122,7 +4128,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>53</v>
@@ -4131,12 +4137,12 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>54</v>
@@ -4145,7 +4151,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>55</v>
@@ -4154,12 +4160,12 @@
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>56</v>
@@ -4168,7 +4174,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>57</v>
@@ -4177,12 +4183,12 @@
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>58</v>
@@ -4191,7 +4197,7 @@
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>59</v>
@@ -4200,12 +4206,12 @@
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>60</v>
@@ -4214,7 +4220,7 @@
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>61</v>
@@ -4223,12 +4229,12 @@
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>62</v>
@@ -4237,7 +4243,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>63</v>
@@ -4246,12 +4252,12 @@
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>64</v>
@@ -4260,7 +4266,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>65</v>
@@ -4269,12 +4275,12 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>66</v>
@@ -4283,7 +4289,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>67</v>
@@ -4292,12 +4298,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>68</v>
@@ -4306,7 +4312,7 @@
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>69</v>
@@ -4315,12 +4321,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>70</v>
@@ -4329,7 +4335,7 @@
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>71</v>
@@ -4338,12 +4344,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>72</v>
@@ -4352,7 +4358,7 @@
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>73</v>
@@ -4361,12 +4367,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>74</v>
@@ -4375,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>75</v>
@@ -4384,12 +4390,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>76</v>
@@ -4398,7 +4404,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>77</v>
@@ -4407,12 +4413,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>78</v>
@@ -4421,7 +4427,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>79</v>
@@ -4430,12 +4436,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>80</v>
@@ -4444,7 +4450,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>81</v>
@@ -4453,12 +4459,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>82</v>
@@ -4467,7 +4473,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>83</v>
@@ -4476,12 +4482,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>84</v>
@@ -4490,7 +4496,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>85</v>
@@ -4499,12 +4505,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>86</v>
@@ -4513,7 +4519,7 @@
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>87</v>
@@ -4522,21 +4528,21 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>89</v>
@@ -4545,12 +4551,12 @@
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>90</v>
@@ -4559,7 +4565,7 @@
         <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>91</v>
@@ -4568,21 +4574,21 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>93</v>
@@ -4591,35 +4597,35 @@
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="E175" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>142</v>
@@ -4631,53 +4637,53 @@
         <v>34</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4688,7 +4694,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>154</v>
@@ -4697,7 +4703,7 @@
         <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>155</v>
@@ -4711,7 +4717,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>156</v>
@@ -4720,7 +4726,7 @@
         <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>157</v>
@@ -4734,7 +4740,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>158</v>
@@ -4743,7 +4749,7 @@
         <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>159</v>
@@ -4757,7 +4763,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>160</v>
@@ -4766,7 +4772,7 @@
         <v>13</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>161</v>
@@ -4780,7 +4786,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>162</v>
@@ -4803,10 +4809,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>13</v>
@@ -4815,7 +4821,7 @@
         <v>34</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4826,7 +4832,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>167</v>
@@ -4844,6 +4850,29 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>22</v>
       </c>
     </row>
